--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3177,28 +3177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>945.5275410353993</v>
+        <v>1018.343679121444</v>
       </c>
       <c r="AB2" t="n">
-        <v>1293.712495375737</v>
+        <v>1393.342747926355</v>
       </c>
       <c r="AC2" t="n">
-        <v>1170.242390553967</v>
+        <v>1260.364071633092</v>
       </c>
       <c r="AD2" t="n">
-        <v>945527.5410353993</v>
+        <v>1018343.679121444</v>
       </c>
       <c r="AE2" t="n">
-        <v>1293712.495375737</v>
+        <v>1393342.747926355</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.402637922824659e-06</v>
+        <v>2.371229002100312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1170242.390553967</v>
+        <v>1260364.071633092</v>
       </c>
     </row>
     <row r="3">
@@ -3283,28 +3283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.1351471171773</v>
+        <v>509.7931734440518</v>
       </c>
       <c r="AB3" t="n">
-        <v>640.5231609508219</v>
+        <v>697.5215103936659</v>
       </c>
       <c r="AC3" t="n">
-        <v>579.3925294495772</v>
+        <v>630.9510364192822</v>
       </c>
       <c r="AD3" t="n">
-        <v>468135.1471171773</v>
+        <v>509793.1734440518</v>
       </c>
       <c r="AE3" t="n">
-        <v>640523.1609508218</v>
+        <v>697521.510393666</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.19484871794995e-06</v>
+        <v>3.710500657749726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.231770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>579392.5294495772</v>
+        <v>630951.0364192822</v>
       </c>
     </row>
     <row r="4">
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>384.6635497114923</v>
+        <v>426.236235183795</v>
       </c>
       <c r="AB4" t="n">
-        <v>526.3136388733843</v>
+        <v>583.1952211940306</v>
       </c>
       <c r="AC4" t="n">
-        <v>476.0830038651393</v>
+        <v>527.5358878029054</v>
       </c>
       <c r="AD4" t="n">
-        <v>384663.5497114923</v>
+        <v>426236.235183795</v>
       </c>
       <c r="AE4" t="n">
-        <v>526313.6388733843</v>
+        <v>583195.2211940306</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.494086855649013e-06</v>
+        <v>4.216377576589605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.122829861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>476083.0038651393</v>
+        <v>527535.8878029054</v>
       </c>
     </row>
     <row r="5">
@@ -3495,28 +3495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>341.8198729048114</v>
+        <v>383.4778097231346</v>
       </c>
       <c r="AB5" t="n">
-        <v>467.6930301368615</v>
+        <v>524.6912571101572</v>
       </c>
       <c r="AC5" t="n">
-        <v>423.0570637518891</v>
+        <v>474.6154599403674</v>
       </c>
       <c r="AD5" t="n">
-        <v>341819.8729048114</v>
+        <v>383477.8097231346</v>
       </c>
       <c r="AE5" t="n">
-        <v>467693.0301368615</v>
+        <v>524691.2571101572</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.652062184506054e-06</v>
+        <v>4.483442708158114e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.641059027777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>423057.0637518891</v>
+        <v>474615.4599403674</v>
       </c>
     </row>
     <row r="6">
@@ -3601,28 +3601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>321.8829619378907</v>
+        <v>363.3703065556218</v>
       </c>
       <c r="AB6" t="n">
-        <v>440.4144689974847</v>
+        <v>497.1792841959333</v>
       </c>
       <c r="AC6" t="n">
-        <v>398.3819302019534</v>
+        <v>449.7291911077807</v>
       </c>
       <c r="AD6" t="n">
-        <v>321882.9619378907</v>
+        <v>363370.3065556218</v>
       </c>
       <c r="AE6" t="n">
-        <v>440414.4689974847</v>
+        <v>497179.2841959334</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.754297991301834e-06</v>
+        <v>4.656277412098729e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>398381.9302019534</v>
+        <v>449729.1911077807</v>
       </c>
     </row>
     <row r="7">
@@ -3707,28 +3707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>306.6764009192417</v>
+        <v>337.9199430415352</v>
       </c>
       <c r="AB7" t="n">
-        <v>419.6081813456443</v>
+        <v>462.3569740451644</v>
       </c>
       <c r="AC7" t="n">
-        <v>379.5613654417965</v>
+        <v>418.2302733643818</v>
       </c>
       <c r="AD7" t="n">
-        <v>306676.4009192417</v>
+        <v>337919.9430415352</v>
       </c>
       <c r="AE7" t="n">
-        <v>419608.1813456443</v>
+        <v>462356.9740451644</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.82506944477325e-06</v>
+        <v>4.775920065602825e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.172309027777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>379561.3654417965</v>
+        <v>418230.2733643819</v>
       </c>
     </row>
     <row r="8">
@@ -3813,28 +3813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>293.957533373764</v>
+        <v>325.2010754960575</v>
       </c>
       <c r="AB8" t="n">
-        <v>402.2056656530872</v>
+        <v>444.9544583526073</v>
       </c>
       <c r="AC8" t="n">
-        <v>363.8197214223529</v>
+        <v>402.4886293449382</v>
       </c>
       <c r="AD8" t="n">
-        <v>293957.533373764</v>
+        <v>325201.0754960575</v>
       </c>
       <c r="AE8" t="n">
-        <v>402205.6656530873</v>
+        <v>444954.4583526073</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.880808966834511e-06</v>
+        <v>4.870150493230722e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.033420138888888</v>
       </c>
       <c r="AH8" t="n">
-        <v>363819.7214223529</v>
+        <v>402488.6293449382</v>
       </c>
     </row>
     <row r="9">
@@ -3919,28 +3919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>274.2453378139321</v>
+        <v>315.8179337776838</v>
       </c>
       <c r="AB9" t="n">
-        <v>375.2345700474333</v>
+        <v>432.1160298985312</v>
       </c>
       <c r="AC9" t="n">
-        <v>339.4227093271321</v>
+        <v>390.8754824836716</v>
       </c>
       <c r="AD9" t="n">
-        <v>274245.337813932</v>
+        <v>315817.9337776838</v>
       </c>
       <c r="AE9" t="n">
-        <v>375234.5700474333</v>
+        <v>432116.0298985312</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.912833516360496e-06</v>
+        <v>4.924289583140887e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.955295138888888</v>
       </c>
       <c r="AH9" t="n">
-        <v>339422.7093271321</v>
+        <v>390875.4824836716</v>
       </c>
     </row>
     <row r="10">
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>270.7697492976504</v>
+        <v>312.3423452614021</v>
       </c>
       <c r="AB10" t="n">
-        <v>370.479116507313</v>
+        <v>427.3605763584109</v>
       </c>
       <c r="AC10" t="n">
-        <v>335.1211095985599</v>
+        <v>386.5738827550994</v>
       </c>
       <c r="AD10" t="n">
-        <v>270769.7492976504</v>
+        <v>312342.3452614021</v>
       </c>
       <c r="AE10" t="n">
-        <v>370479.116507313</v>
+        <v>427360.5763584109</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.92431753849372e-06</v>
+        <v>4.943703892350654e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.929253472222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>335121.10959856</v>
+        <v>386573.8827550994</v>
       </c>
     </row>
     <row r="11">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>270.6045899777788</v>
+        <v>312.1771859415304</v>
       </c>
       <c r="AB11" t="n">
-        <v>370.2531382395497</v>
+        <v>427.1345980906476</v>
       </c>
       <c r="AC11" t="n">
-        <v>334.9166983795095</v>
+        <v>386.369471536049</v>
       </c>
       <c r="AD11" t="n">
-        <v>270604.5899777788</v>
+        <v>312177.1859415304</v>
       </c>
       <c r="AE11" t="n">
-        <v>370253.1382395497</v>
+        <v>427134.5980906476</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.931786821181996e-06</v>
+        <v>4.956331085332616e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.911892361111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>334916.6983795095</v>
+        <v>386369.471536049</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>668.0357914043017</v>
+        <v>728.4939471214418</v>
       </c>
       <c r="AB2" t="n">
-        <v>914.0360414584776</v>
+        <v>996.7575573362557</v>
       </c>
       <c r="AC2" t="n">
-        <v>826.8017245193209</v>
+        <v>901.6284150221009</v>
       </c>
       <c r="AD2" t="n">
-        <v>668035.7914043016</v>
+        <v>728493.9471214418</v>
       </c>
       <c r="AE2" t="n">
-        <v>914036.0414584776</v>
+        <v>996757.5573362557</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.721642874196658e-06</v>
+        <v>2.981525647631122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.17447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>826801.724519321</v>
+        <v>901628.4150221009</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>376.8456594083628</v>
+        <v>417.293271638375</v>
       </c>
       <c r="AB3" t="n">
-        <v>515.6168564596644</v>
+        <v>570.9590639354803</v>
       </c>
       <c r="AC3" t="n">
-        <v>466.4071073519564</v>
+        <v>516.4675322195565</v>
       </c>
       <c r="AD3" t="n">
-        <v>376845.6594083629</v>
+        <v>417293.271638375</v>
       </c>
       <c r="AE3" t="n">
-        <v>515616.8564596644</v>
+        <v>570959.0639354803</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.457240749645845e-06</v>
+        <v>4.255427433457692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.530815972222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>466407.1073519564</v>
+        <v>516467.5322195565</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.15173142576</v>
+        <v>354.5140028012005</v>
       </c>
       <c r="AB4" t="n">
-        <v>429.8362583329694</v>
+        <v>485.0616986865876</v>
       </c>
       <c r="AC4" t="n">
-        <v>388.8132891166475</v>
+        <v>438.7680909523087</v>
       </c>
       <c r="AD4" t="n">
-        <v>314151.73142576</v>
+        <v>354514.0028012005</v>
       </c>
       <c r="AE4" t="n">
-        <v>429836.2583329693</v>
+        <v>485061.6986865876</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.732703609517311e-06</v>
+        <v>4.732471537078672e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.669270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>388813.2891166474</v>
+        <v>438768.0909523087</v>
       </c>
     </row>
     <row r="5">
@@ -4746,28 +4746,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>289.7566183740045</v>
+        <v>329.9482975488528</v>
       </c>
       <c r="AB5" t="n">
-        <v>396.4577884191265</v>
+        <v>451.4498169978978</v>
       </c>
       <c r="AC5" t="n">
-        <v>358.6204135244051</v>
+        <v>408.3640800774153</v>
       </c>
       <c r="AD5" t="n">
-        <v>289756.6183740045</v>
+        <v>329948.2975488529</v>
       </c>
       <c r="AE5" t="n">
-        <v>396457.7884191265</v>
+        <v>451449.8169978978</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.870338453597548e-06</v>
+        <v>4.970826322373166e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.302517361111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>358620.4135244051</v>
+        <v>408364.0800774153</v>
       </c>
     </row>
     <row r="6">
@@ -4852,28 +4852,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>272.1180073047992</v>
+        <v>302.3898003449306</v>
       </c>
       <c r="AB6" t="n">
-        <v>372.3238625936391</v>
+        <v>413.7430653284014</v>
       </c>
       <c r="AC6" t="n">
-        <v>336.7897957075247</v>
+        <v>374.2560078654972</v>
       </c>
       <c r="AD6" t="n">
-        <v>272118.0073047992</v>
+        <v>302389.8003449306</v>
       </c>
       <c r="AE6" t="n">
-        <v>372323.8625936392</v>
+        <v>413743.0653284014</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.959680369930334e-06</v>
+        <v>5.125547849669591e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.081163194444446</v>
       </c>
       <c r="AH6" t="n">
-        <v>336789.7957075246</v>
+        <v>374256.0078654972</v>
       </c>
     </row>
     <row r="7">
@@ -4958,28 +4958,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>248.8832725836807</v>
+        <v>289.1602031045527</v>
       </c>
       <c r="AB7" t="n">
-        <v>340.5330735038924</v>
+        <v>395.6417467354779</v>
       </c>
       <c r="AC7" t="n">
-        <v>308.0330749099528</v>
+        <v>357.8822537137221</v>
       </c>
       <c r="AD7" t="n">
-        <v>248883.2725836807</v>
+        <v>289160.2031045527</v>
       </c>
       <c r="AE7" t="n">
-        <v>340533.0735038923</v>
+        <v>395641.7467354779</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.015603580261883e-06</v>
+        <v>5.222395162431353e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.950954861111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>308033.0749099528</v>
+        <v>357882.2537137221</v>
       </c>
     </row>
     <row r="8">
@@ -5064,28 +5064,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>249.0166562351562</v>
+        <v>289.2935867560282</v>
       </c>
       <c r="AB8" t="n">
-        <v>340.7155749003124</v>
+        <v>395.8242481318981</v>
       </c>
       <c r="AC8" t="n">
-        <v>308.1981586292409</v>
+        <v>358.0473374330103</v>
       </c>
       <c r="AD8" t="n">
-        <v>249016.6562351562</v>
+        <v>289293.5867560282</v>
       </c>
       <c r="AE8" t="n">
-        <v>340715.5749003125</v>
+        <v>395824.2481318981</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.022171418435537e-06</v>
+        <v>5.233769285519091e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.935763888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>308198.1586292409</v>
+        <v>358047.3374330103</v>
       </c>
     </row>
   </sheetData>
@@ -5361,28 +5361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.4307314628062</v>
+        <v>312.9775347682394</v>
       </c>
       <c r="AB2" t="n">
-        <v>378.2247220505862</v>
+        <v>428.229670664249</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.1274854198089</v>
+        <v>387.3600319201698</v>
       </c>
       <c r="AD2" t="n">
-        <v>276430.7314628062</v>
+        <v>312977.5347682394</v>
       </c>
       <c r="AE2" t="n">
-        <v>378224.7220505862</v>
+        <v>428229.670664249</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.750975874060596e-06</v>
+        <v>5.205438335449464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.502604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>342127.4854198089</v>
+        <v>387360.0319201698</v>
       </c>
     </row>
     <row r="3">
@@ -5467,28 +5467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.9744109428022</v>
+        <v>234.320597289499</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.1915201183836</v>
+        <v>320.6077787065116</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.1641189001631</v>
+        <v>290.0094222827008</v>
       </c>
       <c r="AD3" t="n">
-        <v>206974.4109428022</v>
+        <v>234320.597289499</v>
       </c>
       <c r="AE3" t="n">
-        <v>283191.5201183836</v>
+        <v>320607.7787065115</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.229715730380955e-06</v>
+        <v>6.111317163503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.241753472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>256164.1189001632</v>
+        <v>290009.4222827008</v>
       </c>
     </row>
     <row r="4">
@@ -5573,28 +5573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.0546128058149</v>
+        <v>235.4007991525117</v>
       </c>
       <c r="AB4" t="n">
-        <v>284.6694999624997</v>
+        <v>322.0857585506276</v>
       </c>
       <c r="AC4" t="n">
-        <v>257.5010424223149</v>
+        <v>291.3463458048526</v>
       </c>
       <c r="AD4" t="n">
-        <v>208054.6128058149</v>
+        <v>235400.7991525117</v>
       </c>
       <c r="AE4" t="n">
-        <v>284669.4999624997</v>
+        <v>322085.7585506276</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.230685712079938e-06</v>
+        <v>6.113152577607565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>257501.0424223149</v>
+        <v>291346.3458048526</v>
       </c>
     </row>
   </sheetData>
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.5910958768217</v>
+        <v>431.074249771684</v>
       </c>
       <c r="AB2" t="n">
-        <v>524.846260223464</v>
+        <v>589.8148061913203</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.7556697740885</v>
+        <v>533.5237088986996</v>
       </c>
       <c r="AD2" t="n">
-        <v>383591.0958768217</v>
+        <v>431074.249771684</v>
       </c>
       <c r="AE2" t="n">
-        <v>524846.260223464</v>
+        <v>589814.8061913203</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.332146349492949e-06</v>
+        <v>4.248664165405602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.594184027777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>474755.6697740885</v>
+        <v>533523.7088986996</v>
       </c>
     </row>
     <row r="3">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.6161296932689</v>
+        <v>295.602652809162</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.4817538676899</v>
+        <v>404.456590642146</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.8413899899115</v>
+        <v>365.855821289649</v>
       </c>
       <c r="AD3" t="n">
-        <v>257616.1296932689</v>
+        <v>295602.652809162</v>
       </c>
       <c r="AE3" t="n">
-        <v>352481.7538676899</v>
+        <v>404456.590642146</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.948099410718949e-06</v>
+        <v>5.370796873488766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.588975694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>318841.3899899115</v>
+        <v>365855.821289649</v>
       </c>
     </row>
     <row r="4">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.9289540578841</v>
+        <v>255.4189359033522</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.4942063407365</v>
+        <v>349.4754563909786</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.8610750690241</v>
+        <v>316.1220093250115</v>
       </c>
       <c r="AD4" t="n">
-        <v>226928.9540578841</v>
+        <v>255418.9359033522</v>
       </c>
       <c r="AE4" t="n">
-        <v>310494.2063407365</v>
+        <v>349475.4563909786</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.158331799711218e-06</v>
+        <v>5.753794629059836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.085503472222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>280861.0750690241</v>
+        <v>316122.0093250115</v>
       </c>
     </row>
     <row r="5">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>225.6027592967684</v>
+        <v>254.0927411422365</v>
       </c>
       <c r="AB5" t="n">
-        <v>308.6796481609953</v>
+        <v>347.6608982112373</v>
       </c>
       <c r="AC5" t="n">
-        <v>279.2196957752084</v>
+        <v>314.4806300311958</v>
       </c>
       <c r="AD5" t="n">
-        <v>225602.7592967684</v>
+        <v>254092.7411422365</v>
       </c>
       <c r="AE5" t="n">
-        <v>308679.6481609953</v>
+        <v>347660.8982112373</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.173797644904371e-06</v>
+        <v>5.781970040210233e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.050781250000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>279219.6957752084</v>
+        <v>314480.6300311958</v>
       </c>
     </row>
   </sheetData>
@@ -6485,28 +6485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.9117605314143</v>
+        <v>240.1223603996832</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.3693108278103</v>
+        <v>328.5460069495855</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.6112573032856</v>
+        <v>297.1900371636316</v>
       </c>
       <c r="AD2" t="n">
-        <v>204911.7605314143</v>
+        <v>240122.3603996832</v>
       </c>
       <c r="AE2" t="n">
-        <v>280369.3108278103</v>
+        <v>328546.0069495855</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.125314212032992e-06</v>
+        <v>6.124608877883934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>253611.2573032856</v>
+        <v>297190.0371636316</v>
       </c>
     </row>
     <row r="3">
@@ -6591,28 +6591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.0249452446233</v>
+        <v>229.0649529122999</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.4734898600371</v>
+        <v>313.4167742069655</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.1370725822559</v>
+        <v>283.5047171599509</v>
       </c>
       <c r="AD3" t="n">
-        <v>194024.9452446233</v>
+        <v>229064.9529122999</v>
       </c>
       <c r="AE3" t="n">
-        <v>265473.4898600372</v>
+        <v>313416.7742069655</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.243404770884567e-06</v>
+        <v>6.356028324399731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.489149305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>240137.0725822559</v>
+        <v>283504.7171599509</v>
       </c>
     </row>
   </sheetData>
@@ -6888,28 +6888,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>727.2440035742197</v>
+        <v>798.3886081497608</v>
       </c>
       <c r="AB2" t="n">
-        <v>995.0473294313289</v>
+        <v>1092.390516090021</v>
       </c>
       <c r="AC2" t="n">
-        <v>900.0814088681003</v>
+        <v>988.1342984141075</v>
       </c>
       <c r="AD2" t="n">
-        <v>727244.0035742198</v>
+        <v>798388.6081497608</v>
       </c>
       <c r="AE2" t="n">
-        <v>995047.3294313289</v>
+        <v>1092390.516090021</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.631708695533983e-06</v>
+        <v>2.807324146436772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.73003472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>900081.4088681003</v>
+        <v>988134.2984141075</v>
       </c>
     </row>
     <row r="3">
@@ -6994,28 +6994,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>396.985240207129</v>
+        <v>447.7784318026378</v>
       </c>
       <c r="AB3" t="n">
-        <v>543.1727194041341</v>
+        <v>612.6702049825722</v>
       </c>
       <c r="AC3" t="n">
-        <v>491.3330774119025</v>
+        <v>554.1978205070679</v>
       </c>
       <c r="AD3" t="n">
-        <v>396985.240207129</v>
+        <v>447778.4318026378</v>
       </c>
       <c r="AE3" t="n">
-        <v>543172.7194041341</v>
+        <v>612670.2049825721</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.384532587736409e-06</v>
+        <v>4.102543505369441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.7109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>491333.0774119025</v>
+        <v>554197.820507068</v>
       </c>
     </row>
     <row r="4">
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>329.8334168151216</v>
+        <v>370.5362427751859</v>
       </c>
       <c r="AB4" t="n">
-        <v>451.2926321098265</v>
+        <v>506.9840342703349</v>
       </c>
       <c r="AC4" t="n">
-        <v>408.2218966944511</v>
+        <v>458.5981895961345</v>
       </c>
       <c r="AD4" t="n">
-        <v>329833.4168151215</v>
+        <v>370536.2427751859</v>
       </c>
       <c r="AE4" t="n">
-        <v>451292.6321098264</v>
+        <v>506984.0342703349</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.664604133646682e-06</v>
+        <v>4.584401336804532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>408221.896694451</v>
+        <v>458598.1895961345</v>
       </c>
     </row>
     <row r="5">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>301.791168651888</v>
+        <v>342.3234024113602</v>
       </c>
       <c r="AB5" t="n">
-        <v>412.923991036214</v>
+        <v>468.3819814218756</v>
       </c>
       <c r="AC5" t="n">
-        <v>373.5151048741782</v>
+        <v>423.6802624932106</v>
       </c>
       <c r="AD5" t="n">
-        <v>301791.168651888</v>
+        <v>342323.4024113602</v>
       </c>
       <c r="AE5" t="n">
-        <v>412923.9910362141</v>
+        <v>468381.9814218756</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.819093359586252e-06</v>
+        <v>4.850197146762234e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.367621527777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>373515.1048741782</v>
+        <v>423680.2624932106</v>
       </c>
     </row>
     <row r="6">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>284.2060359224995</v>
+        <v>314.7332449010988</v>
       </c>
       <c r="AB6" t="n">
-        <v>388.863236634562</v>
+        <v>430.6319107244918</v>
       </c>
       <c r="AC6" t="n">
-        <v>351.750675103139</v>
+        <v>389.5330055606281</v>
       </c>
       <c r="AD6" t="n">
-        <v>284206.0359224995</v>
+        <v>314733.2449010988</v>
       </c>
       <c r="AE6" t="n">
-        <v>388863.236634562</v>
+        <v>430631.9107244918</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.909642806760251e-06</v>
+        <v>5.005985768955535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.139756944444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>351750.675103139</v>
+        <v>389533.0055606281</v>
       </c>
     </row>
     <row r="7">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>259.2382494685869</v>
+        <v>299.8557345740796</v>
       </c>
       <c r="AB7" t="n">
-        <v>354.7012097073205</v>
+        <v>410.2758447456313</v>
       </c>
       <c r="AC7" t="n">
-        <v>320.8490240791274</v>
+        <v>371.1196939488721</v>
       </c>
       <c r="AD7" t="n">
-        <v>259238.2494685869</v>
+        <v>299855.7345740796</v>
       </c>
       <c r="AE7" t="n">
-        <v>354701.2097073204</v>
+        <v>410275.8447456313</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.976166977781317e-06</v>
+        <v>5.120439355027779e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.979166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>320849.0240791275</v>
+        <v>371119.6939488721</v>
       </c>
     </row>
     <row r="8">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>253.8911532851327</v>
+        <v>294.5086383906286</v>
       </c>
       <c r="AB8" t="n">
-        <v>347.3850768117194</v>
+        <v>402.9597118501988</v>
       </c>
       <c r="AC8" t="n">
-        <v>314.2311326389301</v>
+        <v>364.5018025087226</v>
       </c>
       <c r="AD8" t="n">
-        <v>253891.1532851327</v>
+        <v>294508.6383906286</v>
       </c>
       <c r="AE8" t="n">
-        <v>347385.0768117195</v>
+        <v>402959.7118501988</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.999522226312454e-06</v>
+        <v>5.160621621217172e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.924913194444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>314231.1326389301</v>
+        <v>364501.8025087226</v>
       </c>
     </row>
     <row r="9">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>254.8246506742279</v>
+        <v>295.4421357797238</v>
       </c>
       <c r="AB9" t="n">
-        <v>348.6623291224772</v>
+        <v>404.2369641609571</v>
       </c>
       <c r="AC9" t="n">
-        <v>315.3864857817844</v>
+        <v>365.6571556515771</v>
       </c>
       <c r="AD9" t="n">
-        <v>254824.6506742279</v>
+        <v>295442.1357797238</v>
       </c>
       <c r="AE9" t="n">
-        <v>348662.3291224772</v>
+        <v>404236.9641609571</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.998852198690659e-06</v>
+        <v>5.15946885128551e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>315386.4857817844</v>
+        <v>365657.1556515771</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.4695875263073</v>
+        <v>220.939489457992</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.1359161109843</v>
+        <v>302.2991566386389</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.7861023629335</v>
+        <v>273.4481494086676</v>
       </c>
       <c r="AD2" t="n">
-        <v>186469.5875263073</v>
+        <v>220939.489457992</v>
       </c>
       <c r="AE2" t="n">
-        <v>255135.9161109843</v>
+        <v>302299.1566386389</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.208241127492209e-06</v>
+        <v>6.431433866881808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.749565972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>230786.1023629335</v>
+        <v>273448.1494086676</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.4557036138075</v>
+        <v>221.9256055454921</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.4851636462728</v>
+        <v>303.6484041739273</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.0065796071353</v>
+        <v>274.6686266528693</v>
       </c>
       <c r="AD3" t="n">
-        <v>187455.7036138075</v>
+        <v>221925.6055454921</v>
       </c>
       <c r="AE3" t="n">
-        <v>256485.1636462728</v>
+        <v>303648.4041739273</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.216374277063813e-06</v>
+        <v>6.447738069565017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.730034722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>232006.5796071353</v>
+        <v>274668.6266528693</v>
       </c>
     </row>
   </sheetData>
@@ -8330,28 +8330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>508.7308353736062</v>
+        <v>567.5310049849243</v>
       </c>
       <c r="AB2" t="n">
-        <v>696.0679725786342</v>
+        <v>776.5209587212419</v>
       </c>
       <c r="AC2" t="n">
-        <v>629.636222213264</v>
+        <v>702.4108882748963</v>
       </c>
       <c r="AD2" t="n">
-        <v>508730.8353736062</v>
+        <v>567531.0049849242</v>
       </c>
       <c r="AE2" t="n">
-        <v>696067.9725786343</v>
+        <v>776520.9587212419</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.996536550442897e-06</v>
+        <v>3.536014587275914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.81597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>629636.222213264</v>
+        <v>702410.8882748963</v>
       </c>
     </row>
     <row r="3">
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.4011462912139</v>
+        <v>360.5729019224531</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.7552275734952</v>
+        <v>493.3517517640495</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.7856058542184</v>
+        <v>446.2669529992202</v>
       </c>
       <c r="AD3" t="n">
-        <v>321401.1462912139</v>
+        <v>360572.9019224531</v>
       </c>
       <c r="AE3" t="n">
-        <v>439755.2275734952</v>
+        <v>493351.7517640495</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.681885063770924e-06</v>
+        <v>4.749817730503207e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.053385416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>397785.6058542184</v>
+        <v>446266.9529992202</v>
       </c>
     </row>
     <row r="4">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>271.4708599284924</v>
+        <v>310.5572747051599</v>
       </c>
       <c r="AB4" t="n">
-        <v>371.438407003249</v>
+        <v>424.9181640716055</v>
       </c>
       <c r="AC4" t="n">
-        <v>335.9888467559365</v>
+        <v>384.3645708689996</v>
       </c>
       <c r="AD4" t="n">
-        <v>271470.8599284923</v>
+        <v>310557.2747051599</v>
       </c>
       <c r="AE4" t="n">
-        <v>371438.407003249</v>
+        <v>424918.1640716055</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.928777711014548e-06</v>
+        <v>5.187082954598883e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.374131944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>335988.8467559365</v>
+        <v>384364.5708689996</v>
       </c>
     </row>
     <row r="5">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.8002764230939</v>
+        <v>278.2431211645929</v>
       </c>
       <c r="AB5" t="n">
-        <v>340.4195144954454</v>
+        <v>380.7045135975613</v>
       </c>
       <c r="AC5" t="n">
-        <v>307.930353813891</v>
+        <v>344.37060914195</v>
       </c>
       <c r="AD5" t="n">
-        <v>248800.2764230939</v>
+        <v>278243.1211645929</v>
       </c>
       <c r="AE5" t="n">
-        <v>340419.5144954454</v>
+        <v>380704.5135975613</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.058543133024095e-06</v>
+        <v>5.416907159444012e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.061631944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>307930.3538138909</v>
+        <v>344370.60914195</v>
       </c>
     </row>
     <row r="6">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>231.4513160278561</v>
+        <v>270.6229821505471</v>
       </c>
       <c r="AB6" t="n">
-        <v>316.6819015005782</v>
+        <v>370.2783032217367</v>
       </c>
       <c r="AC6" t="n">
-        <v>286.4582252872972</v>
+        <v>334.9394616511159</v>
       </c>
       <c r="AD6" t="n">
-        <v>231451.3160278561</v>
+        <v>270622.9821505471</v>
       </c>
       <c r="AE6" t="n">
-        <v>316681.9015005783</v>
+        <v>370278.3032217367</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.100836311209722e-06</v>
+        <v>5.491811520685714e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.963975694444446</v>
       </c>
       <c r="AH6" t="n">
-        <v>286458.2252872972</v>
+        <v>334939.4616511159</v>
       </c>
     </row>
   </sheetData>
@@ -9051,28 +9051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.3551826757097</v>
+        <v>669.3683328386636</v>
       </c>
       <c r="AB2" t="n">
-        <v>833.74664379027</v>
+        <v>915.8592834365508</v>
       </c>
       <c r="AC2" t="n">
-        <v>754.1750342776896</v>
+        <v>828.450958841943</v>
       </c>
       <c r="AD2" t="n">
-        <v>609355.1826757097</v>
+        <v>669368.3328386636</v>
       </c>
       <c r="AE2" t="n">
-        <v>833746.64379027</v>
+        <v>915859.2834365508</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.806053019331014e-06</v>
+        <v>3.149598762600613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.71657986111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>754175.0342776896</v>
+        <v>828450.9588419431</v>
       </c>
     </row>
     <row r="3">
@@ -9157,28 +9157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.858059863968</v>
+        <v>397.7815752932501</v>
       </c>
       <c r="AB3" t="n">
-        <v>489.6371850892516</v>
+        <v>544.2623002007896</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.906899354438</v>
+        <v>492.3186701465613</v>
       </c>
       <c r="AD3" t="n">
-        <v>357858.0598639681</v>
+        <v>397781.57529325</v>
       </c>
       <c r="AE3" t="n">
-        <v>489637.1850892516</v>
+        <v>544262.3002007896</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.529527262349755e-06</v>
+        <v>4.411274669230022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.365885416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>442906.899354438</v>
+        <v>492318.6701465613</v>
       </c>
     </row>
     <row r="4">
@@ -9263,28 +9263,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.5177897250459</v>
+        <v>340.5265565003484</v>
       </c>
       <c r="AB4" t="n">
-        <v>411.1816978109952</v>
+        <v>465.9234575751825</v>
       </c>
       <c r="AC4" t="n">
-        <v>371.9390936690504</v>
+        <v>421.456376711886</v>
       </c>
       <c r="AD4" t="n">
-        <v>300517.7897250458</v>
+        <v>340526.5565003484</v>
       </c>
       <c r="AE4" t="n">
-        <v>411181.6978109952</v>
+        <v>465923.4575751824</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.792493574131633e-06</v>
+        <v>4.8698649549685e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>371939.0936690504</v>
+        <v>421456.376711886</v>
       </c>
     </row>
     <row r="5">
@@ -9369,28 +9369,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.530784738888</v>
+        <v>306.537449328916</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.3616193569604</v>
+        <v>419.4180616496492</v>
       </c>
       <c r="AC5" t="n">
-        <v>342.2513174393993</v>
+        <v>379.3893905027525</v>
       </c>
       <c r="AD5" t="n">
-        <v>276530.784738888</v>
+        <v>306537.449328916</v>
       </c>
       <c r="AE5" t="n">
-        <v>378361.6193569604</v>
+        <v>419418.0616496492</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.928803141751607e-06</v>
+        <v>5.107576938454742e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.224392361111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>342251.3174393993</v>
+        <v>379389.3905027525</v>
       </c>
     </row>
     <row r="6">
@@ -9475,28 +9475,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>258.6690681796489</v>
+        <v>288.6757327696768</v>
       </c>
       <c r="AB6" t="n">
-        <v>353.9224307572892</v>
+        <v>394.9788730499781</v>
       </c>
       <c r="AC6" t="n">
-        <v>320.144570699064</v>
+        <v>357.2826437624174</v>
       </c>
       <c r="AD6" t="n">
-        <v>258669.0681796489</v>
+        <v>288675.7327696768</v>
       </c>
       <c r="AE6" t="n">
-        <v>353922.4307572892</v>
+        <v>394978.8730499781</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.01850614762455e-06</v>
+        <v>5.264011147902055e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.009548611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>320144.5706990641</v>
+        <v>357282.6437624174</v>
       </c>
     </row>
     <row r="7">
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>243.1970808313179</v>
+        <v>283.1205067520518</v>
       </c>
       <c r="AB7" t="n">
-        <v>332.7529750912379</v>
+        <v>387.3779677333884</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.9954981703629</v>
+        <v>350.4071581813054</v>
       </c>
       <c r="AD7" t="n">
-        <v>243197.0808313179</v>
+        <v>283120.5067520518</v>
       </c>
       <c r="AE7" t="n">
-        <v>332752.9750912379</v>
+        <v>387377.9677333884</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.04804963760227e-06</v>
+        <v>5.315532414709159e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.942274305555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>300995.4981703629</v>
+        <v>350407.1581813054</v>
       </c>
     </row>
   </sheetData>
@@ -9878,28 +9878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>863.5539262713266</v>
+        <v>935.9159035382722</v>
       </c>
       <c r="AB2" t="n">
-        <v>1181.552579234884</v>
+        <v>1280.561428916648</v>
       </c>
       <c r="AC2" t="n">
-        <v>1068.786859392166</v>
+        <v>1158.346443420096</v>
       </c>
       <c r="AD2" t="n">
-        <v>863553.9262713266</v>
+        <v>935915.9035382723</v>
       </c>
       <c r="AE2" t="n">
-        <v>1181552.579234883</v>
+        <v>1280561.428916648</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.475494285984968e-06</v>
+        <v>2.508242495756283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.84331597222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1068786.859392166</v>
+        <v>1158346.443420096</v>
       </c>
     </row>
     <row r="3">
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>448.2677411908351</v>
+        <v>489.6175319947837</v>
       </c>
       <c r="AB3" t="n">
-        <v>613.3396996743104</v>
+        <v>669.9163076762958</v>
       </c>
       <c r="AC3" t="n">
-        <v>554.8034195650685</v>
+        <v>605.9804355051124</v>
       </c>
       <c r="AD3" t="n">
-        <v>448267.7411908351</v>
+        <v>489617.5319947837</v>
       </c>
       <c r="AE3" t="n">
-        <v>613339.6996743104</v>
+        <v>669916.3076762957</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.252298077062907e-06</v>
+        <v>3.828757456846496e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.069010416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>554803.4195650684</v>
+        <v>605980.4355051124</v>
       </c>
     </row>
     <row r="4">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>369.186648139516</v>
+        <v>410.4510980888928</v>
       </c>
       <c r="AB4" t="n">
-        <v>505.1374593498981</v>
+        <v>561.5973002296857</v>
       </c>
       <c r="AC4" t="n">
-        <v>456.9278491944199</v>
+        <v>507.999242102525</v>
       </c>
       <c r="AD4" t="n">
-        <v>369186.6481395159</v>
+        <v>410451.0980888928</v>
       </c>
       <c r="AE4" t="n">
-        <v>505137.459349898</v>
+        <v>561597.3002296857</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.550916738207842e-06</v>
+        <v>4.336389389429395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.005642361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>456927.8491944199</v>
+        <v>507999.242102525</v>
       </c>
     </row>
     <row r="5">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.1522645247865</v>
+        <v>368.5019658201839</v>
       </c>
       <c r="AB5" t="n">
-        <v>447.6241612620989</v>
+        <v>504.2006467945358</v>
       </c>
       <c r="AC5" t="n">
-        <v>404.9035395556996</v>
+        <v>456.0804447145169</v>
       </c>
       <c r="AD5" t="n">
-        <v>327152.2645247865</v>
+        <v>368501.9658201839</v>
       </c>
       <c r="AE5" t="n">
-        <v>447624.1612620989</v>
+        <v>504200.6467945358</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.712507737636098e-06</v>
+        <v>4.611083378791146e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.530381944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>404903.5395556996</v>
+        <v>456080.4447145169</v>
       </c>
     </row>
     <row r="6">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>308.2926095676871</v>
+        <v>349.4717186624923</v>
       </c>
       <c r="AB6" t="n">
-        <v>421.8195493205406</v>
+        <v>478.1626230781305</v>
       </c>
       <c r="AC6" t="n">
-        <v>381.5616835608431</v>
+        <v>432.5274534370093</v>
       </c>
       <c r="AD6" t="n">
-        <v>308292.6095676871</v>
+        <v>349471.7186624923</v>
       </c>
       <c r="AE6" t="n">
-        <v>421819.5493205406</v>
+        <v>478162.6230781305</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.80916117759697e-06</v>
+        <v>4.775387820884634e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.269965277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>381561.6835608431</v>
+        <v>432527.4534370094</v>
       </c>
     </row>
     <row r="7">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>294.354342147914</v>
+        <v>325.3667076280132</v>
       </c>
       <c r="AB7" t="n">
-        <v>402.7485969238469</v>
+        <v>445.1810835427231</v>
       </c>
       <c r="AC7" t="n">
-        <v>364.3108360946402</v>
+        <v>402.6936257449797</v>
       </c>
       <c r="AD7" t="n">
-        <v>294354.342147914</v>
+        <v>325366.7076280132</v>
       </c>
       <c r="AE7" t="n">
-        <v>402748.5969238469</v>
+        <v>445181.083542723</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.872781163394001e-06</v>
+        <v>4.88353758023731e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.109374999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>364310.8360946402</v>
+        <v>402693.6257449797</v>
       </c>
     </row>
     <row r="8">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>271.8402960160123</v>
+        <v>313.1046564568381</v>
       </c>
       <c r="AB8" t="n">
-        <v>371.9438857565638</v>
+        <v>428.4036041668029</v>
       </c>
       <c r="AC8" t="n">
-        <v>336.4460833264788</v>
+        <v>387.5173654533573</v>
       </c>
       <c r="AD8" t="n">
-        <v>271840.2960160123</v>
+        <v>313104.6564568381</v>
       </c>
       <c r="AE8" t="n">
-        <v>371943.8857565637</v>
+        <v>428403.604166803</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.92388419932268e-06</v>
+        <v>4.970409354391899e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.985677083333332</v>
       </c>
       <c r="AH8" t="n">
-        <v>336446.0833264788</v>
+        <v>387517.3654533573</v>
       </c>
     </row>
     <row r="9">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>264.8499683469061</v>
+        <v>306.1143287877319</v>
       </c>
       <c r="AB9" t="n">
-        <v>362.3794110482011</v>
+        <v>418.8391294584404</v>
       </c>
       <c r="AC9" t="n">
-        <v>327.7944286604577</v>
+        <v>378.8657107873362</v>
       </c>
       <c r="AD9" t="n">
-        <v>264849.9683469061</v>
+        <v>306114.3287877319</v>
       </c>
       <c r="AE9" t="n">
-        <v>362379.4110482011</v>
+        <v>418839.1294584404</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.951176796779986e-06</v>
+        <v>5.016804961214794e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.920572916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>327794.4286604577</v>
+        <v>378865.7107873362</v>
       </c>
     </row>
     <row r="10">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>265.3907611686411</v>
+        <v>306.6551216094668</v>
       </c>
       <c r="AB10" t="n">
-        <v>363.1193476449943</v>
+        <v>419.5790660552335</v>
       </c>
       <c r="AC10" t="n">
-        <v>328.4637467469605</v>
+        <v>379.535028873839</v>
       </c>
       <c r="AD10" t="n">
-        <v>265390.761168641</v>
+        <v>306655.1216094668</v>
       </c>
       <c r="AE10" t="n">
-        <v>363119.3476449943</v>
+        <v>419579.0660552335</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.949576885894558e-06</v>
+        <v>5.014085218745865e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.924913194444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>328463.7467469604</v>
+        <v>379535.028873839</v>
       </c>
     </row>
   </sheetData>
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>418.834133306299</v>
+        <v>476.3123297640797</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.0673388475529</v>
+        <v>651.7115430001513</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.3745963330033</v>
+        <v>589.5131080191114</v>
       </c>
       <c r="AD2" t="n">
-        <v>418834.1333062989</v>
+        <v>476312.3297640797</v>
       </c>
       <c r="AE2" t="n">
-        <v>573067.3388475529</v>
+        <v>651711.5430001513</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.215193875042169e-06</v>
+        <v>3.994518760052175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>518374.5963330033</v>
+        <v>589513.1080191114</v>
       </c>
     </row>
     <row r="3">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.38431820356</v>
+        <v>313.8169036481759</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.7929732647906</v>
+        <v>429.3781321961197</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.8323807286575</v>
+        <v>388.3988858953147</v>
       </c>
       <c r="AD3" t="n">
-        <v>275384.31820356</v>
+        <v>313816.9036481759</v>
       </c>
       <c r="AE3" t="n">
-        <v>376792.9732647906</v>
+        <v>429378.1321961197</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.854797125628873e-06</v>
+        <v>5.147874776536422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.738715277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>340832.3807286575</v>
+        <v>388398.8858953147</v>
       </c>
     </row>
     <row r="4">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.9645681716683</v>
+        <v>269.7890967636843</v>
       </c>
       <c r="AB4" t="n">
-        <v>329.6983527787996</v>
+        <v>369.1373444470042</v>
       </c>
       <c r="AC4" t="n">
-        <v>298.2324047242334</v>
+        <v>333.9073943804981</v>
       </c>
       <c r="AD4" t="n">
-        <v>240964.5681716683</v>
+        <v>269789.0967636843</v>
       </c>
       <c r="AE4" t="n">
-        <v>329698.3527787997</v>
+        <v>369137.3444470042</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.085306797600903e-06</v>
+        <v>5.563538262897508e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>298232.4047242334</v>
+        <v>333907.3943804982</v>
       </c>
     </row>
     <row r="5">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.1629277175109</v>
+        <v>259.9874563095268</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.2873158915698</v>
+        <v>355.7263075597675</v>
       </c>
       <c r="AC5" t="n">
-        <v>286.1012983750081</v>
+        <v>321.7762880312708</v>
       </c>
       <c r="AD5" t="n">
-        <v>231162.9277175109</v>
+        <v>259987.4563095268</v>
       </c>
       <c r="AE5" t="n">
-        <v>316287.3158915698</v>
+        <v>355726.3075597675</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.144563259212088e-06</v>
+        <v>5.670391685628139e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.026909722222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>286101.298375008</v>
+        <v>321776.2880312708</v>
       </c>
     </row>
   </sheetData>
@@ -11638,28 +11638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.4836646454024</v>
+        <v>353.6569262882119</v>
       </c>
       <c r="AB2" t="n">
-        <v>420.7127151897393</v>
+        <v>483.8890087899693</v>
       </c>
       <c r="AC2" t="n">
-        <v>380.5604841260341</v>
+        <v>437.7073209335433</v>
       </c>
       <c r="AD2" t="n">
-        <v>307483.6646454023</v>
+        <v>353656.9262882119</v>
       </c>
       <c r="AE2" t="n">
-        <v>420712.7151897393</v>
+        <v>483889.0087899693</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.600004887614043e-06</v>
+        <v>4.850778047607001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.851996527777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>380560.4841260341</v>
+        <v>437707.3209335433</v>
       </c>
     </row>
     <row r="3">
@@ -11744,28 +11744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.0108783879274</v>
+        <v>256.8471681852397</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.0285900051481</v>
+        <v>351.4296268082174</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.2988438714254</v>
+        <v>317.8896764603251</v>
       </c>
       <c r="AD3" t="n">
-        <v>220010.8783879274</v>
+        <v>256847.1681852397</v>
       </c>
       <c r="AE3" t="n">
-        <v>301028.5900051481</v>
+        <v>351429.6268082174</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.162428951208466e-06</v>
+        <v>5.90008157550665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>272298.8438714254</v>
+        <v>317889.6764603251</v>
       </c>
     </row>
     <row r="4">
@@ -11850,28 +11850,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.3128911555012</v>
+        <v>241.0681421624807</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.8641083794055</v>
+        <v>329.840067282391</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.0090075096099</v>
+        <v>298.3605941944996</v>
       </c>
       <c r="AD4" t="n">
-        <v>213312.8911555012</v>
+        <v>241068.1421624807</v>
       </c>
       <c r="AE4" t="n">
-        <v>291864.1083794055</v>
+        <v>329840.067282391</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.218533482538175e-06</v>
+        <v>6.004754697561887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.150607638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>264009.0075096099</v>
+        <v>298360.5941944996</v>
       </c>
     </row>
   </sheetData>
@@ -21208,28 +21208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.5293115402487</v>
+        <v>281.311350780202</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.9440360379527</v>
+        <v>384.902600718375</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.8820087390064</v>
+        <v>348.1680367200054</v>
       </c>
       <c r="AD2" t="n">
-        <v>245529.3115402487</v>
+        <v>281311.350780202</v>
       </c>
       <c r="AE2" t="n">
-        <v>335944.0360379528</v>
+        <v>384902.6007183749</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.92206470327504e-06</v>
+        <v>5.619238785099196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.148871527777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>303882.0087390064</v>
+        <v>348168.0367200054</v>
       </c>
     </row>
     <row r="3">
@@ -21314,28 +21314,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.5210103956163</v>
+        <v>236.2177087809945</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.3616927857896</v>
+        <v>323.2034903438265</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.1769978954485</v>
+        <v>292.3574028444554</v>
       </c>
       <c r="AD3" t="n">
-        <v>200521.0103956163</v>
+        <v>236217.7087809945</v>
       </c>
       <c r="AE3" t="n">
-        <v>274361.6927857895</v>
+        <v>323203.4903438265</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.244836887589644e-06</v>
+        <v>6.239941665093257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.337239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>248176.9978954485</v>
+        <v>292357.4028444553</v>
       </c>
     </row>
   </sheetData>
@@ -21611,28 +21611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.3637658663461</v>
+        <v>220.8867815207356</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.359370364189</v>
+        <v>302.2270393135747</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.8927918593416</v>
+        <v>273.3829148598902</v>
       </c>
       <c r="AD2" t="n">
-        <v>187363.7658663461</v>
+        <v>220886.7815207356</v>
       </c>
       <c r="AE2" t="n">
-        <v>256359.370364189</v>
+        <v>302227.0393135747</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.131203374494715e-06</v>
+        <v>6.458417955281527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.161892361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>231892.7918593416</v>
+        <v>273382.9148598902</v>
       </c>
     </row>
   </sheetData>
@@ -21908,28 +21908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>561.0373553778238</v>
+        <v>620.3281189983559</v>
       </c>
       <c r="AB2" t="n">
-        <v>767.6360608492053</v>
+        <v>848.7602993586996</v>
       </c>
       <c r="AC2" t="n">
-        <v>694.3739525857342</v>
+        <v>767.7558076304664</v>
       </c>
       <c r="AD2" t="n">
-        <v>561037.3553778238</v>
+        <v>620328.1189983559</v>
       </c>
       <c r="AE2" t="n">
-        <v>767636.0608492052</v>
+        <v>848760.2993586996</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.901485254913794e-06</v>
+        <v>3.340834583519651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.23914930555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>694373.9525857342</v>
+        <v>767755.8076304664</v>
       </c>
     </row>
     <row r="3">
@@ -22014,28 +22014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.4851532771585</v>
+        <v>379.0408058118874</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.4985637417462</v>
+        <v>518.6203526119912</v>
       </c>
       <c r="AC3" t="n">
-        <v>420.1674727460618</v>
+        <v>469.1239540469385</v>
       </c>
       <c r="AD3" t="n">
-        <v>339485.1532771584</v>
+        <v>379040.8058118874</v>
       </c>
       <c r="AE3" t="n">
-        <v>464498.5637417462</v>
+        <v>518620.3526119911</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.604017535640657e-06</v>
+        <v>4.575156087420899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.207465277777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>420167.4727460619</v>
+        <v>469123.9540469385</v>
       </c>
     </row>
     <row r="4">
@@ -22120,28 +22120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>285.6312976095845</v>
+        <v>325.1016092897418</v>
       </c>
       <c r="AB4" t="n">
-        <v>390.8133425529396</v>
+        <v>444.8183643009868</v>
       </c>
       <c r="AC4" t="n">
-        <v>353.5146656496576</v>
+        <v>402.3655239185952</v>
       </c>
       <c r="AD4" t="n">
-        <v>285631.2976095845</v>
+        <v>325101.6092897418</v>
       </c>
       <c r="AE4" t="n">
-        <v>390813.3425529395</v>
+        <v>444818.3643009869</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.860746110893662e-06</v>
+        <v>5.026218066769169e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.469618055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>353514.6656496575</v>
+        <v>402365.5239185952</v>
       </c>
     </row>
     <row r="5">
@@ -22226,28 +22226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>262.059951205237</v>
+        <v>291.7907186243503</v>
       </c>
       <c r="AB5" t="n">
-        <v>358.5619865081002</v>
+        <v>399.2409341198193</v>
       </c>
       <c r="AC5" t="n">
-        <v>324.3413337606751</v>
+        <v>361.1379397055932</v>
       </c>
       <c r="AD5" t="n">
-        <v>262059.951205237</v>
+        <v>291790.7186243503</v>
       </c>
       <c r="AE5" t="n">
-        <v>358561.9865081002</v>
+        <v>399240.9341198193</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.998711869976692e-06</v>
+        <v>5.26861846303573e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.126736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>324341.333760675</v>
+        <v>361137.9397055932</v>
       </c>
     </row>
     <row r="6">
@@ -22332,28 +22332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>237.9108074943234</v>
+        <v>277.4663705205043</v>
       </c>
       <c r="AB6" t="n">
-        <v>325.5200626976455</v>
+        <v>379.6417290984993</v>
       </c>
       <c r="AC6" t="n">
-        <v>294.4528847841563</v>
+        <v>343.409255303851</v>
       </c>
       <c r="AD6" t="n">
-        <v>237910.8074943234</v>
+        <v>277466.3705205042</v>
       </c>
       <c r="AE6" t="n">
-        <v>325520.0626976455</v>
+        <v>379641.7290984993</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.069418090548865e-06</v>
+        <v>5.392846503377907e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>294452.8847841563</v>
+        <v>343409.255303851</v>
       </c>
     </row>
     <row r="7">
@@ -22438,28 +22438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>238.7166583385922</v>
+        <v>278.272221364773</v>
       </c>
       <c r="AB7" t="n">
-        <v>326.6226633744036</v>
+        <v>380.744329775258</v>
       </c>
       <c r="AC7" t="n">
-        <v>295.4502547998348</v>
+        <v>344.4066253195296</v>
       </c>
       <c r="AD7" t="n">
-        <v>238716.6583385922</v>
+        <v>278272.2213647731</v>
       </c>
       <c r="AE7" t="n">
-        <v>326622.6633744036</v>
+        <v>380744.329775258</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.068433324245632e-06</v>
+        <v>5.391116307829967e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.963975694444446</v>
       </c>
       <c r="AH7" t="n">
-        <v>295450.2547998348</v>
+        <v>344406.6253195296</v>
       </c>
     </row>
   </sheetData>
@@ -22735,28 +22735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>796.0998003778535</v>
+        <v>867.7345555841704</v>
       </c>
       <c r="AB2" t="n">
-        <v>1089.258868321425</v>
+        <v>1187.272700697065</v>
       </c>
       <c r="AC2" t="n">
-        <v>985.3015307132513</v>
+        <v>1073.961060490237</v>
       </c>
       <c r="AD2" t="n">
-        <v>796099.8003778536</v>
+        <v>867734.5555841704</v>
       </c>
       <c r="AE2" t="n">
-        <v>1089258.868321425</v>
+        <v>1187272.700697065</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.553529559386628e-06</v>
+        <v>2.656362417495523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>985301.5307132513</v>
+        <v>1073961.060490237</v>
       </c>
     </row>
     <row r="3">
@@ -22841,28 +22841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.2165586003158</v>
+        <v>468.4207516078219</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.8541017724674</v>
+        <v>640.9139376149026</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.3725874980661</v>
+        <v>579.7460109372965</v>
       </c>
       <c r="AD3" t="n">
-        <v>417216.5586003158</v>
+        <v>468420.7516078219</v>
       </c>
       <c r="AE3" t="n">
-        <v>570854.1017724674</v>
+        <v>640913.9376149026</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.317056456633273e-06</v>
+        <v>3.961908322520811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>516372.5874980661</v>
+        <v>579746.0109372966</v>
       </c>
     </row>
     <row r="4">
@@ -22947,28 +22947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>344.0483081815082</v>
+        <v>385.0799352711705</v>
       </c>
       <c r="AB4" t="n">
-        <v>470.742073594064</v>
+        <v>526.8833559657703</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.8151107808956</v>
+        <v>476.5983479578311</v>
       </c>
       <c r="AD4" t="n">
-        <v>344048.3081815082</v>
+        <v>385079.9352711705</v>
       </c>
       <c r="AE4" t="n">
-        <v>470742.073594064</v>
+        <v>526883.3559657703</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.607246023098626e-06</v>
+        <v>4.458100141756123e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.899305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>425815.1107808956</v>
+        <v>476598.3479578311</v>
       </c>
     </row>
     <row r="5">
@@ -23053,28 +23053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>314.714366517728</v>
+        <v>355.575401406798</v>
       </c>
       <c r="AB5" t="n">
-        <v>430.6060804875082</v>
+        <v>486.5139510843677</v>
       </c>
       <c r="AC5" t="n">
-        <v>389.5096405252094</v>
+        <v>440.0817424194938</v>
       </c>
       <c r="AD5" t="n">
-        <v>314714.366517728</v>
+        <v>355575.401406798</v>
       </c>
       <c r="AE5" t="n">
-        <v>430606.0804875082</v>
+        <v>486513.9510843677</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.762969070374508e-06</v>
+        <v>4.724369198448453e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.454427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>389509.6405252094</v>
+        <v>440081.7424194938</v>
       </c>
     </row>
     <row r="6">
@@ -23159,28 +23159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>296.7702805609235</v>
+        <v>327.5440903867213</v>
       </c>
       <c r="AB6" t="n">
-        <v>406.0541904442072</v>
+        <v>448.1602746925353</v>
       </c>
       <c r="AC6" t="n">
-        <v>367.3009484088469</v>
+        <v>405.388487072775</v>
       </c>
       <c r="AD6" t="n">
-        <v>296770.2805609236</v>
+        <v>327544.0903867213</v>
       </c>
       <c r="AE6" t="n">
-        <v>406054.1904442072</v>
+        <v>448160.2746925353</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.855871485537877e-06</v>
+        <v>4.883221975110118e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.211371527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>367300.9484088469</v>
+        <v>405388.487072775</v>
       </c>
     </row>
     <row r="7">
@@ -23265,28 +23265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>282.7443389617654</v>
+        <v>313.5181487875632</v>
       </c>
       <c r="AB7" t="n">
-        <v>386.863278367367</v>
+        <v>428.9693626156951</v>
       </c>
       <c r="AC7" t="n">
-        <v>349.941590046006</v>
+        <v>388.0291287099342</v>
       </c>
       <c r="AD7" t="n">
-        <v>282744.3389617655</v>
+        <v>313518.1487875632</v>
       </c>
       <c r="AE7" t="n">
-        <v>386863.278367367</v>
+        <v>428969.3626156951</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.918787012865061e-06</v>
+        <v>4.990800515382523e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.055121527777777</v>
       </c>
       <c r="AH7" t="n">
-        <v>349941.590046006</v>
+        <v>388029.1287099342</v>
       </c>
     </row>
     <row r="8">
@@ -23371,28 +23371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>261.3435254621269</v>
+        <v>302.2898116972176</v>
       </c>
       <c r="AB8" t="n">
-        <v>357.5817411999038</v>
+        <v>413.6062564494126</v>
       </c>
       <c r="AC8" t="n">
-        <v>323.45464168891</v>
+        <v>374.1322558339066</v>
       </c>
       <c r="AD8" t="n">
-        <v>261343.5254621269</v>
+        <v>302289.8116972176</v>
       </c>
       <c r="AE8" t="n">
-        <v>357581.7411999038</v>
+        <v>413606.2564494126</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.963482658975323e-06</v>
+        <v>5.067225089241199e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.948784722222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>323454.64168891</v>
+        <v>374132.2558339066</v>
       </c>
     </row>
     <row r="9">
@@ -23477,28 +23477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>258.949882970346</v>
+        <v>299.8961692054367</v>
       </c>
       <c r="AB9" t="n">
-        <v>354.3066539425953</v>
+        <v>410.331169192104</v>
       </c>
       <c r="AC9" t="n">
-        <v>320.4921241628252</v>
+        <v>371.1697383078218</v>
       </c>
       <c r="AD9" t="n">
-        <v>258949.882970346</v>
+        <v>299896.1692054367</v>
       </c>
       <c r="AE9" t="n">
-        <v>354306.6539425954</v>
+        <v>410331.169192104</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.978001626820058e-06</v>
+        <v>5.092050906227139e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.916232638888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>320492.1241628252</v>
+        <v>371169.7383078219</v>
       </c>
     </row>
   </sheetData>
@@ -23774,28 +23774,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.150048214193</v>
+        <v>219.7018515897327</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.0669524439559</v>
+        <v>300.6057659065581</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.6282818950044</v>
+        <v>271.9163735113672</v>
       </c>
       <c r="AD2" t="n">
-        <v>187150.048214193</v>
+        <v>219701.8515897327</v>
       </c>
       <c r="AE2" t="n">
-        <v>256066.9524439559</v>
+        <v>300605.7659065581</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.916680218153922e-06</v>
+        <v>6.251789102591348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.073350694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>231628.2818950044</v>
+        <v>271916.3735113672</v>
       </c>
     </row>
   </sheetData>
@@ -24071,28 +24071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.274472787471</v>
+        <v>386.7875381963396</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.8927425700525</v>
+        <v>529.2197736221112</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.2833299458428</v>
+        <v>478.7117811922334</v>
       </c>
       <c r="AD2" t="n">
-        <v>349274.472787471</v>
+        <v>386787.5381963396</v>
       </c>
       <c r="AE2" t="n">
-        <v>477892.7425700525</v>
+        <v>529219.7736221112</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.461567287036626e-06</v>
+        <v>4.535271656984032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.214409722222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>432283.3299458427</v>
+        <v>478711.7811922334</v>
       </c>
     </row>
     <row r="3">
@@ -24177,28 +24177,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.5696974746952</v>
+        <v>276.9120811744236</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.7898291538499</v>
+        <v>378.8833259616716</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.5060279154185</v>
+        <v>342.7232330979767</v>
       </c>
       <c r="AD3" t="n">
-        <v>239569.6974746952</v>
+        <v>276912.0811744236</v>
       </c>
       <c r="AE3" t="n">
-        <v>327789.8291538499</v>
+        <v>378883.3259616716</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.046415524554435e-06</v>
+        <v>5.612815077885091e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.445746527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>296506.0279154185</v>
+        <v>342723.2330979767</v>
       </c>
     </row>
     <row r="4">
@@ -24283,28 +24283,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.0729378644739</v>
+        <v>247.2077592982627</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.7452584019441</v>
+        <v>338.2405623083554</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.1379916352634</v>
+        <v>305.9593577653575</v>
       </c>
       <c r="AD4" t="n">
-        <v>219072.9378644738</v>
+        <v>247207.7592982627</v>
       </c>
       <c r="AE4" t="n">
-        <v>299745.2584019441</v>
+        <v>338240.5623083554</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.197226104743534e-06</v>
+        <v>5.890673397463403e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.094184027777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>271137.9916352634</v>
+        <v>305959.3577653575</v>
       </c>
     </row>
     <row r="5">
@@ -24389,28 +24389,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>220.162957650001</v>
+        <v>248.2977790837899</v>
       </c>
       <c r="AB5" t="n">
-        <v>301.2366715607807</v>
+        <v>339.7319754671919</v>
       </c>
       <c r="AC5" t="n">
-        <v>272.4870664154326</v>
+        <v>307.3084325455267</v>
       </c>
       <c r="AD5" t="n">
-        <v>220162.957650001</v>
+        <v>248297.7790837899</v>
       </c>
       <c r="AE5" t="n">
-        <v>301236.6715607807</v>
+        <v>339731.975467192</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.197017081070369e-06</v>
+        <v>5.890288285447355e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.094184027777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>272487.0664154326</v>
+        <v>307308.4325455267</v>
       </c>
     </row>
   </sheetData>
@@ -24686,28 +24686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>467.4282170730583</v>
+        <v>515.9117869315495</v>
       </c>
       <c r="AB2" t="n">
-        <v>639.5559080769057</v>
+        <v>705.8932673014365</v>
       </c>
       <c r="AC2" t="n">
-        <v>578.5175898323997</v>
+        <v>638.5238045976097</v>
       </c>
       <c r="AD2" t="n">
-        <v>467428.2170730583</v>
+        <v>515911.7869315495</v>
       </c>
       <c r="AE2" t="n">
-        <v>639555.9080769056</v>
+        <v>705893.2673014365</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.102003964527266e-06</v>
+        <v>3.755076681992869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.38845486111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>578517.5898323997</v>
+        <v>638523.8045976097</v>
       </c>
     </row>
     <row r="3">
@@ -24792,28 +24792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.1839158338992</v>
+        <v>333.0389727975087</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.5154121223335</v>
+        <v>455.6786152240776</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.0999061233063</v>
+        <v>412.189287736044</v>
       </c>
       <c r="AD3" t="n">
-        <v>294183.9158338992</v>
+        <v>333038.9727975087</v>
       </c>
       <c r="AE3" t="n">
-        <v>402515.4121223335</v>
+        <v>455678.6152240776</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.762087545537264e-06</v>
+        <v>4.934267827702454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.905815972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>364099.9061233063</v>
+        <v>412189.287736044</v>
       </c>
     </row>
     <row r="4">
@@ -24898,28 +24898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.3689234857138</v>
+        <v>295.0533882487343</v>
       </c>
       <c r="AB4" t="n">
-        <v>350.7752713116594</v>
+        <v>403.7050626387266</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.2977717339647</v>
+        <v>365.1760180640998</v>
       </c>
       <c r="AD4" t="n">
-        <v>256368.9234857138</v>
+        <v>295053.3882487344</v>
       </c>
       <c r="AE4" t="n">
-        <v>350775.2713116594</v>
+        <v>403705.0626387267</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.00509087604628e-06</v>
+        <v>5.368375543691575e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>317297.7717339647</v>
+        <v>365176.0180640998</v>
       </c>
     </row>
     <row r="5">
@@ -25004,28 +25004,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.4737880413876</v>
+        <v>266.6151702726488</v>
       </c>
       <c r="AB5" t="n">
-        <v>324.9221134022015</v>
+        <v>364.7946381982149</v>
       </c>
       <c r="AC5" t="n">
-        <v>293.9120029302422</v>
+        <v>329.9791499210668</v>
       </c>
       <c r="AD5" t="n">
-        <v>237473.7880413876</v>
+        <v>266615.1702726487</v>
       </c>
       <c r="AE5" t="n">
-        <v>324922.1134022016</v>
+        <v>364794.6381982149</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.116278735347507e-06</v>
+        <v>5.567004540034425e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.007378472222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>293912.0029302422</v>
+        <v>329979.1499210668</v>
       </c>
     </row>
     <row r="6">
@@ -25110,28 +25110,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>227.5347578979386</v>
+        <v>266.3044740069794</v>
       </c>
       <c r="AB6" t="n">
-        <v>311.3230938808779</v>
+        <v>364.3695298605742</v>
       </c>
       <c r="AC6" t="n">
-        <v>281.6108547456856</v>
+        <v>329.5946133265272</v>
       </c>
       <c r="AD6" t="n">
-        <v>227534.7578979386</v>
+        <v>266304.4740069794</v>
       </c>
       <c r="AE6" t="n">
-        <v>311323.0938808779</v>
+        <v>364369.5298605742</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.120001767740399e-06</v>
+        <v>5.573655465703823e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.998697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>281610.8547456856</v>
+        <v>329594.6133265272</v>
       </c>
     </row>
   </sheetData>
